--- a/Outputs/Gas Transfer Velocity/Raymond Method/Raymond Paper Method 08_12.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Method/Raymond Paper Method 08_12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\Raymond Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD5C79-125B-475F-AAA0-E40DCE675D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAD53C1-22A8-4526-A65D-72AE7CBE1718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="4070" xr2:uid="{B4C7CFCF-9ECD-4FEA-98DF-8F356BCD35D6}"/>
   </bookViews>
@@ -540,7 +540,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Aug. 12th K600'!$G$2:$G$35</c:f>
+              <c:f>'Aug. 12th K600'!$F$2:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -2772,16 +2772,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3142,10 +3142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC8DE64-B842-4E13-A3F2-35A0A9DFA874}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3171,14 +3171,11 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>39</v>
@@ -3222,37 +3219,34 @@
         <f t="shared" ref="D2:D35" si="0">C2/2</f>
         <v>0.04</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <f>((G2*L30)^(0.89))*((D2)^(0.54))*5037</f>
+        <v>517.21383524435794</v>
+      </c>
+      <c r="G2">
         <v>3.7</v>
       </c>
-      <c r="F2">
-        <v>0.14767616191904048</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G35" si="1">((E2*F2)^(0.89))*((D2)^(0.54))*5037</f>
-        <v>517.21383524435794</v>
-      </c>
       <c r="H2">
-        <f t="shared" ref="H2:H35" si="2">((E2*F2)^(0.87))*((D2)^(0.52))*(4433)</f>
+        <f>((G2*L30)^(0.87))*((D2)^(0.52))*(4433)</f>
         <v>491.36528666159995</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I35" si="3">((E2*F2)^(0.91))*((D2)^(0.56))*(5641)</f>
+        <f>((G2*L30)^(0.91))*((D2)^(0.56))*(5641)</f>
         <v>536.59389178964352</v>
       </c>
       <c r="J2">
-        <f>AVERAGE(G2:G35)</f>
+        <f>AVERAGE(F2:F35)</f>
         <v>1469.1043866904565</v>
       </c>
       <c r="K2">
-        <f>STDEVA(G2:G35)</f>
+        <f>STDEVA(F2:F35)</f>
         <v>2046.7522442720499</v>
       </c>
       <c r="L2">
         <v>5.8309518950000001</v>
       </c>
       <c r="O2">
-        <f>LOG(G2)</f>
+        <f>LOG(F2)</f>
         <v>2.7136701335515823</v>
       </c>
       <c r="P2">
@@ -3278,22 +3272,19 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <f>((G3*L31)^(0.89))*((D3)^(0.54))*5037</f>
+        <v>17.320124541771712</v>
+      </c>
+      <c r="G3">
         <v>1.3</v>
       </c>
-      <c r="F3">
-        <v>1.101379724055189E-2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>17.320124541771712</v>
-      </c>
       <c r="H3">
-        <f t="shared" si="2"/>
+        <f>((G3*L31)^(0.87))*((D3)^(0.52))*(4433)</f>
         <v>17.7998669998134</v>
       </c>
       <c r="I3">
-        <f t="shared" si="3"/>
+        <f>((G3*L31)^(0.91))*((D3)^(0.56))*(5641)</f>
         <v>16.61097761867051</v>
       </c>
       <c r="J3" t="s">
@@ -3303,7 +3294,7 @@
         <v>45</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O35" si="4">LOG(G3)</f>
+        <f>LOG(F3)</f>
         <v>1.2385510105225379</v>
       </c>
       <c r="P3" t="s">
@@ -3327,22 +3318,19 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <f>((G4*L32)^(0.89))*((D4)^(0.54))*5037</f>
+        <v>298.37925234353702</v>
+      </c>
+      <c r="G4">
         <v>1.7</v>
       </c>
-      <c r="F4">
-        <v>0.15129870129870129</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>298.37925234353702</v>
-      </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f>((G4*L32)^(0.87))*((D4)^(0.52))*(4433)</f>
         <v>286.48990230316662</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f>((G4*L32)^(0.91))*((D4)^(0.56))*(5641)</f>
         <v>306.29355095244802</v>
       </c>
       <c r="J4">
@@ -3354,7 +3342,7 @@
         <v>0.23893136335352741</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
+        <f>LOG(F4)</f>
         <v>2.4747686213945297</v>
       </c>
       <c r="P4">
@@ -3380,26 +3368,23 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <f>((G5*L33)^(0.89))*((D5)^(0.54))*5037</f>
+        <v>146.54939346312253</v>
+      </c>
+      <c r="G5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5">
-        <v>9.4167252283907238E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>146.54939346312253</v>
-      </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f>((G5*L33)^(0.87))*((D5)^(0.52))*(4433)</f>
         <v>142.77130496339538</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f>((G5*L33)^(0.91))*((D5)^(0.56))*(5641)</f>
         <v>148.26445682801116</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
+        <f>LOG(F5)</f>
         <v>2.1659840253253648</v>
       </c>
     </row>
@@ -3417,26 +3402,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <f>((G6*L34)^(0.89))*((D6)^(0.54))*5037</f>
+        <v>61.795307952795241</v>
+      </c>
+      <c r="G6">
         <v>2.5</v>
       </c>
-      <c r="F6">
-        <v>2.6709279762584182E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>61.795307952795241</v>
-      </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f>((G6*L34)^(0.87))*((D6)^(0.52))*(4433)</f>
         <v>61.805971516598596</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f>((G6*L34)^(0.91))*((D6)^(0.56))*(5641)</f>
         <v>60.896242158116344</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
+        <f>LOG(F6)</f>
         <v>1.7909555008563052</v>
       </c>
     </row>
@@ -3454,26 +3436,23 @@
         <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <f>((G7*L35)^(0.89))*((D7)^(0.54))*5037</f>
+        <v>576.65509446911756</v>
+      </c>
+      <c r="G7">
         <v>5.5</v>
       </c>
-      <c r="F7">
-        <v>0.10451977401129944</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>576.65509446911756</v>
-      </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f>((G7*L35)^(0.87))*((D7)^(0.52))*(4433)</f>
         <v>545.99220231929428</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f>((G7*L35)^(0.91))*((D7)^(0.56))*(5641)</f>
         <v>600.28260056568934</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
+        <f>LOG(F7)</f>
         <v>2.7609161331629481</v>
       </c>
     </row>
@@ -3491,26 +3470,23 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <f>((G8*L36)^(0.89))*((D8)^(0.54))*5037</f>
+        <v>607.24336363218538</v>
+      </c>
+      <c r="G8">
         <v>3.5</v>
       </c>
-      <c r="F8">
-        <v>0.20273864643877448</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>607.24336363218538</v>
-      </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f>((G8*L36)^(0.87))*((D8)^(0.52))*(4433)</f>
         <v>575.42285179308749</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f>((G8*L36)^(0.91))*((D8)^(0.56))*(5641)</f>
         <v>631.60910027713248</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f>LOG(F8)</f>
         <v>2.7833627772381058</v>
       </c>
     </row>
@@ -3528,26 +3504,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <f>((G9*L37)^(0.89))*((D9)^(0.54))*5037</f>
+        <v>1014.733649106093</v>
+      </c>
+      <c r="G9">
         <v>7.3</v>
       </c>
-      <c r="F9">
-        <v>0.24304840370751801</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>1014.733649106093</v>
-      </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f>((G9*L37)^(0.87))*((D9)^(0.52))*(4433)</f>
         <v>954.72199918744786</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f>((G9*L37)^(0.91))*((D9)^(0.56))*(5641)</f>
         <v>1063.0094454421203</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
+        <f>LOG(F9)</f>
         <v>3.0063520620487374</v>
       </c>
     </row>
@@ -3565,26 +3538,23 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <f>((G10*L38)^(0.89))*((D10)^(0.54))*5037</f>
+        <v>611.523202581595</v>
+      </c>
+      <c r="G10">
         <v>7.8</v>
       </c>
-      <c r="F10">
-        <v>8.4557280738564833E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>611.523202581595</v>
-      </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>((G10*L38)^(0.87))*((D10)^(0.52))*(4433)</f>
         <v>578.77879090039812</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f>((G10*L38)^(0.91))*((D10)^(0.56))*(5641)</f>
         <v>636.82954046716372</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
+        <f>LOG(F10)</f>
         <v>2.7864129398056368</v>
       </c>
     </row>
@@ -3602,26 +3572,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f>((G11*L39)^(0.89))*((D11)^(0.54))*5037</f>
+        <v>1918.0633225522581</v>
+      </c>
+      <c r="G11">
         <v>13.1</v>
       </c>
-      <c r="F11">
-        <v>0.27696871628910458</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1918.0633225522581</v>
-      </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f>((G11*L39)^(0.87))*((D11)^(0.52))*(4433)</f>
         <v>1778.9923520207415</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f>((G11*L39)^(0.91))*((D11)^(0.56))*(5641)</f>
         <v>2038.2700817463365</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
+        <f>LOG(F11)</f>
         <v>3.28286294078098</v>
       </c>
     </row>
@@ -3639,26 +3606,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <f>((G12*L40)^(0.89))*((D12)^(0.54))*5037</f>
+        <v>771.56609552036844</v>
+      </c>
+      <c r="G12">
         <v>9.6</v>
       </c>
-      <c r="F12">
-        <v>0.13585017835909632</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>771.56609552036844</v>
-      </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f>((G12*L40)^(0.87))*((D12)^(0.52))*(4433)</f>
         <v>730.41836982097914</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f>((G12*L40)^(0.91))*((D12)^(0.56))*(5641)</f>
         <v>803.31247827863604</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f>LOG(F12)</f>
         <v>2.8873731354416154</v>
       </c>
     </row>
@@ -3676,26 +3640,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <f>((G13*L41)^(0.89))*((D13)^(0.54))*5037</f>
+        <v>505.25955122681648</v>
+      </c>
+      <c r="G13">
         <v>11.1</v>
       </c>
-      <c r="F13">
-        <v>7.3017299483262202E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>505.25955122681648</v>
-      </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f>((G13*L41)^(0.87))*((D13)^(0.52))*(4433)</f>
         <v>482.88613703959044</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f>((G13*L41)^(0.91))*((D13)^(0.56))*(5641)</f>
         <v>521.06782331354248</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f>LOG(F13)</f>
         <v>2.7035145319961393</v>
       </c>
     </row>
@@ -3713,26 +3674,23 @@
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f>((G14*L42)^(0.89))*((D14)^(0.54))*5037</f>
+        <v>947.29935039376801</v>
+      </c>
+      <c r="G14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F14">
-        <v>0.23847965018499831</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>947.29935039376801</v>
-      </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f>((G14*L42)^(0.87))*((D14)^(0.52))*(4433)</f>
         <v>894.67621380734306</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f>((G14*L42)^(0.91))*((D14)^(0.56))*(5641)</f>
         <v>988.59524470328961</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f>LOG(F14)</f>
         <v>2.9764872394898214</v>
       </c>
     </row>
@@ -3750,26 +3708,23 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <f>((G15*L43)^(0.89))*((D15)^(0.54))*5037</f>
+        <v>3259.0179627228304</v>
+      </c>
+      <c r="G15">
         <v>16.5</v>
       </c>
-      <c r="F15">
-        <v>0.31192818919385462</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>3259.0179627228304</v>
-      </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f>((G15*L43)^(0.87))*((D15)^(0.52))*(4433)</f>
         <v>2977.4147680762967</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f>((G15*L43)^(0.91))*((D15)^(0.56))*(5641)</f>
         <v>3515.9614078984523</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f>LOG(F15)</f>
         <v>3.5130867541717739</v>
       </c>
     </row>
@@ -3787,26 +3742,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <f>((G16*L44)^(0.89))*((D16)^(0.54))*5037</f>
+        <v>1993.61949301959</v>
+      </c>
+      <c r="G16">
         <v>14.1</v>
       </c>
-      <c r="F16">
-        <v>0.23471278567016676</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1993.61949301959</v>
-      </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f>((G16*L44)^(0.87))*((D16)^(0.52))*(4433)</f>
         <v>1844.2259746189857</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f>((G16*L44)^(0.91))*((D16)^(0.56))*(5641)</f>
         <v>2124.1263070390842</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f>LOG(F16)</f>
         <v>3.2996422714023579</v>
       </c>
     </row>
@@ -3824,26 +3776,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <f>((G17*L45)^(0.89))*((D17)^(0.54))*5037</f>
+        <v>490.18318783643542</v>
+      </c>
+      <c r="G17">
         <v>12.7</v>
       </c>
-      <c r="F17">
-        <v>5.3872053872053877E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>490.18318783643542</v>
-      </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f>((G17*L45)^(0.87))*((D17)^(0.52))*(4433)</f>
         <v>467.97434709241918</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f>((G17*L45)^(0.91))*((D17)^(0.56))*(5641)</f>
         <v>506.06314015444701</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f>LOG(F17)</f>
         <v>2.6903584118628672</v>
       </c>
     </row>
@@ -3861,26 +3810,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <f>((G18*L46)^(0.89))*((D18)^(0.54))*5037</f>
+        <v>1467.4134961624629</v>
+      </c>
+      <c r="G18">
         <v>11.4</v>
       </c>
-      <c r="F18">
-        <v>0.2355652821754517</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1467.4134961624629</v>
-      </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f>((G18*L46)^(0.87))*((D18)^(0.52))*(4433)</f>
         <v>1369.2330294139419</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f>((G18*L46)^(0.91))*((D18)^(0.56))*(5641)</f>
         <v>1550.020994432381</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
+        <f>LOG(F18)</f>
         <v>3.1665525090701783</v>
       </c>
     </row>
@@ -3898,26 +3844,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <f>((G19*L47)^(0.89))*((D19)^(0.54))*5037</f>
+        <v>3230.227272794556</v>
+      </c>
+      <c r="G19">
         <v>13.2</v>
       </c>
-      <c r="F19">
-        <v>0.43119847812301842</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>3230.227272794556</v>
-      </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f>((G19*L47)^(0.87))*((D19)^(0.52))*(4433)</f>
         <v>2955.9360684215744</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f>((G19*L47)^(0.91))*((D19)^(0.56))*(5641)</f>
         <v>3479.2132741483074</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
+        <f>LOG(F19)</f>
         <v>3.5092330795596447</v>
       </c>
     </row>
@@ -3935,26 +3878,23 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <f>((G20*L48)^(0.89))*((D20)^(0.54))*5037</f>
+        <v>1262.7066825460765</v>
+      </c>
+      <c r="G20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F20">
-        <v>0.64762893734856353</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1262.7066825460765</v>
-      </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f>((G20*L48)^(0.87))*((D20)^(0.52))*(4433)</f>
         <v>1175.7797543701788</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f>((G20*L48)^(0.91))*((D20)^(0.56))*(5641)</f>
         <v>1336.5613836348311</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f>LOG(F20)</f>
         <v>3.1013024788641421</v>
       </c>
     </row>
@@ -3972,26 +3912,23 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <f>((G21*L49)^(0.89))*((D21)^(0.54))*5037</f>
+        <v>1620.2407877192534</v>
+      </c>
+      <c r="G21">
         <v>4.7</v>
       </c>
-      <c r="F21">
-        <v>0.41938787120263965</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>1620.2407877192534</v>
-      </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f>((G21*L49)^(0.87))*((D21)^(0.52))*(4433)</f>
         <v>1500.2715266949308</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f>((G21*L49)^(0.91))*((D21)^(0.56))*(5641)</f>
         <v>1724.6428967203656</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f>LOG(F21)</f>
         <v>3.2095795608432458</v>
       </c>
     </row>
@@ -4009,26 +3946,23 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <f>((G22*L50)^(0.89))*((D22)^(0.54))*5037</f>
+        <v>824.20008746408985</v>
+      </c>
+      <c r="G22">
         <v>0.9</v>
       </c>
-      <c r="F22">
-        <v>1.2202498356344511</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>824.20008746408985</v>
-      </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f>((G22*L50)^(0.87))*((D22)^(0.52))*(4433)</f>
         <v>776.60858346890836</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f>((G22*L50)^(0.91))*((D22)^(0.56))*(5641)</f>
         <v>862.13059126924998</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
+        <f>LOG(F22)</f>
         <v>2.91603265627589</v>
       </c>
     </row>
@@ -4046,26 +3980,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <f>((G23*L51)^(0.89))*((D23)^(0.54))*5037</f>
+        <v>156.35538841423028</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>9.4745366204786741E-2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>156.35538841423028</v>
-      </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f>((G23*L51)^(0.87))*((D23)^(0.52))*(4433)</f>
         <v>153.15390462894135</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f>((G23*L51)^(0.91))*((D23)^(0.56))*(5641)</f>
         <v>157.32855769029121</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f>LOG(F23)</f>
         <v>2.1941128527567071</v>
       </c>
     </row>
@@ -4083,26 +4014,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E24">
+      <c r="F24">
+        <f>((G24*L52)^(0.89))*((D24)^(0.54))*5037</f>
+        <v>1794.0216387876956</v>
+      </c>
+      <c r="G24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F24">
-        <v>0.34698155394074903</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>1794.0216387876956</v>
-      </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f>((G24*L52)^(0.87))*((D24)^(0.52))*(4433)</f>
         <v>1666.446191471792</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f>((G24*L52)^(0.91))*((D24)^(0.56))*(5641)</f>
         <v>1903.5925140451907</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f>LOG(F24)</f>
         <v>3.2538276770299328</v>
       </c>
     </row>
@@ -4120,26 +4048,23 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E25">
+      <c r="F25">
+        <f>((G25*L53)^(0.89))*((D25)^(0.54))*5037</f>
+        <v>753.65438140848528</v>
+      </c>
+      <c r="G25">
         <v>7.2</v>
       </c>
-      <c r="F25">
-        <v>0.15407703851925961</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>753.65438140848528</v>
-      </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f>((G25*L53)^(0.87))*((D25)^(0.52))*(4433)</f>
         <v>712.58684427474134</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f>((G25*L53)^(0.91))*((D25)^(0.56))*(5641)</f>
         <v>785.62733478848315</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f>LOG(F25)</f>
         <v>2.8771722282847119</v>
       </c>
     </row>
@@ -4157,26 +4082,23 @@
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <f>((G26*L54)^(0.89))*((D26)^(0.54))*5037</f>
+        <v>865.24525894668193</v>
+      </c>
+      <c r="G26">
         <v>10.9</v>
       </c>
-      <c r="F26">
-        <v>0.2072379651758279</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>865.24525894668193</v>
-      </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f>((G26*L54)^(0.87))*((D26)^(0.52))*(4433)</f>
         <v>821.4612702029732</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f>((G26*L54)^(0.91))*((D26)^(0.56))*(5641)</f>
         <v>898.2584130918907</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f>LOG(F26)</f>
         <v>2.9371392282852229</v>
       </c>
     </row>
@@ -4194,26 +4116,23 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <f>((G27*L55)^(0.89))*((D27)^(0.54))*5037</f>
+        <v>1020.7555338173415</v>
+      </c>
+      <c r="G27">
         <v>12</v>
       </c>
-      <c r="F27">
-        <v>0.14884068810770382</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>1020.7555338173415</v>
-      </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f>((G27*L55)^(0.87))*((D27)^(0.52))*(4433)</f>
         <v>960.26005909738581</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f>((G27*L55)^(0.91))*((D27)^(0.56))*(5641)</f>
         <v>1069.4600108820628</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f>LOG(F27)</f>
         <v>3.0089217430401201</v>
       </c>
     </row>
@@ -4231,26 +4150,23 @@
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <f>((G28*L56)^(0.89))*((D28)^(0.54))*5037</f>
+        <v>2032.2444996111058</v>
+      </c>
+      <c r="G28">
         <v>26.7</v>
       </c>
-      <c r="F28">
-        <v>0.17266851338873501</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>2032.2444996111058</v>
-      </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f>((G28*L56)^(0.87))*((D28)^(0.52))*(4433)</f>
         <v>1886.7111838359633</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f>((G28*L56)^(0.91))*((D28)^(0.56))*(5641)</f>
         <v>2157.5278928927346</v>
       </c>
       <c r="O28">
-        <f t="shared" si="4"/>
+        <f>LOG(F28)</f>
         <v>3.3079759567832001</v>
       </c>
     </row>
@@ -4268,26 +4184,26 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E29">
+      <c r="F29">
+        <f>((G29*L57)^(0.89))*((D29)^(0.54))*5037</f>
+        <v>3376.6973268237821</v>
+      </c>
+      <c r="G29">
         <v>19.3</v>
       </c>
-      <c r="F29">
-        <v>0.27751769188894937</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>3376.6973268237821</v>
-      </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f>((G29*L57)^(0.87))*((D29)^(0.52))*(4433)</f>
         <v>3082.4676659621364</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f>((G29*L57)^(0.91))*((D29)^(0.56))*(5641)</f>
         <v>3645.8237325665559</v>
       </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
       <c r="O29">
-        <f t="shared" si="4"/>
+        <f>LOG(F29)</f>
         <v>3.5284921340196695</v>
       </c>
     </row>
@@ -4305,26 +4221,26 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <f>((G30*L58)^(0.89))*((D30)^(0.54))*5037</f>
+        <v>360.17551316878132</v>
+      </c>
+      <c r="G30">
         <v>12.7</v>
       </c>
-      <c r="F30">
-        <v>3.8104543234000976E-2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>360.17551316878132</v>
-      </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f>((G30*L58)^(0.87))*((D30)^(0.52))*(4433)</f>
         <v>346.24662931179535</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f>((G30*L58)^(0.91))*((D30)^(0.56))*(5641)</f>
         <v>369.27741096667921</v>
       </c>
+      <c r="L30">
+        <v>0.14767616191904048</v>
+      </c>
       <c r="O30">
-        <f t="shared" si="4"/>
+        <f>LOG(F30)</f>
         <v>2.5565141836163106</v>
       </c>
     </row>
@@ -4342,26 +4258,26 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <f>((G31*L59)^(0.89))*((D31)^(0.54))*5037</f>
+        <v>403.79539030018606</v>
+      </c>
+      <c r="G31">
         <v>10.6</v>
       </c>
-      <c r="F31">
-        <v>5.1910828025477709E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>403.79539030018606</v>
-      </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f>((G31*L59)^(0.87))*((D31)^(0.52))*(4433)</f>
         <v>387.18369544148982</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f>((G31*L59)^(0.91))*((D31)^(0.56))*(5641)</f>
         <v>415.06449234035261</v>
       </c>
+      <c r="L31">
+        <v>1.101379724055189E-2</v>
+      </c>
       <c r="O31">
-        <f t="shared" si="4"/>
+        <f>LOG(F31)</f>
         <v>2.6061613567606181</v>
       </c>
     </row>
@@ -4379,26 +4295,26 @@
         <f t="shared" si="0"/>
         <v>5.5E-2</v>
       </c>
-      <c r="E32">
+      <c r="F32">
+        <f>((G32*L60)^(0.89))*((D32)^(0.54))*5037</f>
+        <v>925.05688761015404</v>
+      </c>
+      <c r="G32">
         <v>3.3</v>
       </c>
-      <c r="F32">
-        <v>0.26229508196721313</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>925.05688761015404</v>
-      </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f>((G32*L60)^(0.87))*((D32)^(0.52))*(4433)</f>
         <v>865.24856158244449</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f>((G32*L60)^(0.91))*((D32)^(0.56))*(5641)</f>
         <v>974.77846363010531</v>
       </c>
+      <c r="L32">
+        <v>0.15129870129870129</v>
+      </c>
       <c r="O32">
-        <f t="shared" si="4"/>
+        <f>LOG(F32)</f>
         <v>2.966168441080113</v>
       </c>
     </row>
@@ -4416,26 +4332,26 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E33">
+      <c r="F33">
+        <f>((G33*L61)^(0.89))*((D33)^(0.54))*5037</f>
+        <v>11702.620853626502</v>
+      </c>
+      <c r="G33">
         <v>20.5</v>
       </c>
-      <c r="F33">
-        <v>1.1793519216277317</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>11702.620853626502</v>
-      </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f>((G33*L61)^(0.87))*((D33)^(0.52))*(4433)</f>
         <v>10403.564629815379</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f>((G33*L61)^(0.91))*((D33)^(0.56))*(5641)</f>
         <v>12974.601547212062</v>
       </c>
+      <c r="L33">
+        <v>9.4167252283907238E-2</v>
+      </c>
       <c r="O33">
-        <f t="shared" si="4"/>
+        <f>LOG(F33)</f>
         <v>4.0682831348062809</v>
       </c>
     </row>
@@ -4453,26 +4369,26 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E34">
+      <c r="F34">
+        <f>((G34*L62)^(0.89))*((D34)^(0.54))*5037</f>
+        <v>3303.4693229593531</v>
+      </c>
+      <c r="G34">
         <v>21</v>
       </c>
-      <c r="F34">
-        <v>0.24884560490303081</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>3303.4693229593531</v>
-      </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f>((G34*L62)^(0.87))*((D34)^(0.52))*(4433)</f>
         <v>3017.1065531030995</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f>((G34*L62)^(0.91))*((D34)^(0.56))*(5641)</f>
         <v>3565.002489966651</v>
       </c>
+      <c r="L34">
+        <v>2.6709279762584182E-2</v>
+      </c>
       <c r="O34">
-        <f t="shared" si="4"/>
+        <f>LOG(F34)</f>
         <v>3.5189702781698147</v>
       </c>
     </row>
@@ -4490,27 +4406,167 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E35">
+      <c r="F35">
+        <f>((G35*L63)^(0.89))*((D35)^(0.54))*5037</f>
+        <v>1114.2466387081442</v>
+      </c>
+      <c r="G35">
         <v>17.100000000000001</v>
       </c>
-      <c r="F35">
+      <c r="H35">
+        <f>((G35*L63)^(0.87))*((D35)^(0.52))*(4433)</f>
+        <v>1044.313686062359</v>
+      </c>
+      <c r="I35">
+        <f>((G35*L63)^(0.91))*((D35)^(0.56))*(5641)</f>
+        <v>1171.7679767338693</v>
+      </c>
+      <c r="L35">
+        <v>0.10451977401129944</v>
+      </c>
+      <c r="O35">
+        <f>LOG(F35)</f>
+        <v>3.0469813326458453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <v>0.20273864643877448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <v>0.24304840370751801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>8.4557280738564833E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <v>0.27696871628910458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>0.13585017835909632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>7.3017299483262202E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>0.23847965018499831</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <v>0.31192818919385462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <v>0.23471278567016676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <v>5.3872053872053877E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <v>0.2355652821754517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L47">
+        <v>0.43119847812301842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <v>0.64762893734856353</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <v>0.41938787120263965</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L50">
+        <v>1.2202498356344511</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L51">
+        <v>9.4745366204786741E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L52">
+        <v>0.34698155394074903</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L53">
+        <v>0.15407703851925961</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L54">
+        <v>0.2072379651758279</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L55">
+        <v>0.14884068810770382</v>
+      </c>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L56">
+        <v>0.17266851338873501</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L57">
+        <v>0.27751769188894937</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L58">
+        <v>3.8104543234000976E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L59">
+        <v>5.1910828025477709E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L60">
+        <v>0.26229508196721313</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L61">
+        <v>1.1793519216277317</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L62">
+        <v>0.24884560490303081</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L63">
         <v>0.10066327480908546</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>1114.2466387081442</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>1044.313686062359</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="3"/>
-        <v>1171.7679767338693</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="4"/>
-        <v>3.0469813326458453</v>
       </c>
     </row>
   </sheetData>
